--- a/同步-zg_员工录用一件事.xlsx
+++ b/同步-zg_员工录用一件事.xlsx
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>黎川县</t>
+          <t>黎川县1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>乐安县</t>
+          <t>乐安县1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
